--- a/src/test/resources/testData/signup_data.xlsx
+++ b/src/test/resources/testData/signup_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEPI\Project\Automation_Exercise\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95130604-776C-4346-AE3C-BC5A71E9EB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5D8E7-2360-4CD7-B816-A6BD91551568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{985B74B3-7B1C-4AC1-85EF-FEA90879A07F}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testData/signup_data.xlsx
+++ b/src/test/resources/testData/signup_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEPI\Project\Automation_Exercise\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5D8E7-2360-4CD7-B816-A6BD91551568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9595C2C-6747-41C8-873A-2EE84EF901B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{985B74B3-7B1C-4AC1-85EF-FEA90879A07F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -117,6 +117,45 @@
   </si>
   <si>
     <t>01007016760</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>hello@yahoo.com</t>
+  </si>
+  <si>
+    <t>qew2</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>34524dsada</t>
+  </si>
+  <si>
+    <t>54353</t>
+  </si>
+  <si>
+    <t>01232434243</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -502,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA00FF79-CB98-4AA4-AB37-FDF7F22C9868}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,12 +664,59 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{A867D0F3-B2E0-4CA7-B1A9-2DD93DA276A5}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{73B11914-953A-49CF-BD88-C8067B89BC7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
